--- a/Best_features_XGboost_results/Precision_Recall_Accuracy_100features_XGB_part_40_80.xlsx
+++ b/Best_features_XGboost_results/Precision_Recall_Accuracy_100features_XGB_part_40_80.xlsx
@@ -501,19 +501,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.4375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="H2" t="n">
         <v>0.9442896935933147</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9451476793248945</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,19 +537,19 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.32</v>
       </c>
       <c r="F3" t="n">
         <v>0.2666666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2711864406779661</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="H3" t="n">
         <v>0.8857938718662952</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8898305084745762</v>
+        <v>0.8897959183673469</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -573,19 +573,19 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.391304347826087</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="H4" t="n">
         <v>0.9665738161559888</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9620253164556962</v>
+        <v>0.970954356846473</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,19 +609,19 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.375</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0.7493036211699164</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6926406926406926</v>
+        <v>0.7630522088353414</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -645,19 +645,19 @@
         <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H6" t="n">
         <v>0.947075208913649</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9322033898305084</v>
+        <v>0.9508196721311475</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="H7" t="n">
         <v>0.8885793871866295</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9061224489795918</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -717,19 +717,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="H8" t="n">
         <v>0.8328690807799443</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8067226890756303</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -753,19 +753,19 @@
         <v>0.4111111111111111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.391304347826087</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.46875</v>
       </c>
       <c r="H9" t="n">
         <v>0.6518105849582173</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -789,19 +789,19 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="H10" t="n">
         <v>0.9275766016713092</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9356223175965666</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -825,19 +825,19 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="H11" t="n">
         <v>0.9442896935933147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9349593495934959</v>
+        <v>0.9531914893617022</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -861,19 +861,19 @@
         <v>0.4</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H12" t="n">
         <v>0.947075208913649</v>
       </c>
       <c r="I12" t="n">
-        <v>0.927038626609442</v>
+        <v>0.9590163934426229</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E13" t="n">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="H13" t="n">
         <v>0.9805013927576601</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9707112970711297</v>
+        <v>0.99581589958159</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -933,19 +933,19 @@
         <v>0.3555555555555556</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="H14" t="n">
         <v>0.9415041782729805</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9262295081967213</v>
+        <v>0.9543568464730291</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -969,19 +969,19 @@
         <v>0.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4375</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="H15" t="n">
         <v>0.7465181058495822</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.8032128514056225</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1005,19 +1005,19 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="E16" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="H16" t="n">
         <v>0.9916434540389972</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9916666666666667</v>
+        <v>0.9874476987447699</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1041,19 +1041,19 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H17" t="n">
         <v>0.947075208913649</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9504132231404959</v>
+        <v>0.963265306122449</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1077,19 +1077,19 @@
         <v>0.3222222222222222</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="H18" t="n">
         <v>0.6768802228412256</v>
       </c>
       <c r="I18" t="n">
-        <v>0.726643598615917</v>
+        <v>0.6343612334801763</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1113,19 +1113,19 @@
         <v>0.3555555555555556</v>
       </c>
       <c r="E19" t="n">
-        <v>0.34375</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="F19" t="n">
         <v>0.3666666666666666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0.9721448467966574</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9663865546218487</v>
+        <v>0.9794238683127572</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1149,19 +1149,19 @@
         <v>0.3777777777777778</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2641509433962264</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="H20" t="n">
         <v>0.6908077994428969</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.703125</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1185,19 +1185,19 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.40625</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H21" t="n">
         <v>0.9832869080779945</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9752066115702479</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1221,19 +1221,19 @@
         <v>0.4222222222222222</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="F22" t="n">
         <v>0.3666666666666666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="H22" t="n">
         <v>0.9442896935933147</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9377593360995851</v>
+        <v>0.9504132231404959</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1257,19 +1257,19 @@
         <v>0.4222222222222222</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="H23" t="n">
         <v>0.8217270194986073</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.8514056224899599</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1293,19 +1293,19 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.392156862745098</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="H24" t="n">
         <v>0.6768802228412256</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6768060836501901</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1329,19 +1329,19 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="H25" t="n">
         <v>0.6434540389972145</v>
       </c>
       <c r="I25" t="n">
-        <v>0.625</v>
+        <v>0.6403508771929824</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1365,19 +1365,19 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="H26" t="n">
         <v>0.6434540389972145</v>
       </c>
       <c r="I26" t="n">
-        <v>0.592</v>
+        <v>0.64</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1401,19 +1401,19 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="H27" t="n">
         <v>0.6740947075208914</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.7091633466135459</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1437,19 +1437,19 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28" t="n">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H28" t="n">
         <v>0.9415041782729805</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9282700421940928</v>
+        <v>0.946058091286307</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1473,19 +1473,19 @@
         <v>0.3555555555555556</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H29" t="n">
         <v>0.9805013927576601</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9915966386554622</v>
+        <v>0.9790794979079498</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1509,19 +1509,19 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H30" t="n">
         <v>0.8941504178272981</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8677685950413223</v>
+        <v>0.9067796610169492</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1545,19 +1545,19 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.40625</v>
       </c>
       <c r="H31" t="n">
         <v>0.9108635097493036</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8927038626609443</v>
+        <v>0.946058091286307</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1581,19 +1581,19 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4375</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="H32" t="n">
         <v>0.9832869080779945</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9915254237288136</v>
+        <v>0.9752066115702479</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1617,19 +1617,19 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="H33" t="n">
         <v>0.947075208913649</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9327731092436975</v>
+        <v>0.9663865546218487</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1653,19 +1653,19 @@
         <v>0.2888888888888889</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="H34" t="n">
         <v>0.9554317548746518</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9626556016597511</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1689,19 +1689,19 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="H35" t="n">
         <v>0.6657381615598886</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6547085201793722</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1725,19 +1725,19 @@
         <v>0.4111111111111111</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="H36" t="n">
         <v>0.7298050139275766</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6697247706422018</v>
+        <v>0.775330396475771</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1761,19 +1761,19 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="H37" t="n">
         <v>0.7883008356545961</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7520661157024794</v>
+        <v>0.7829787234042553</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1797,19 +1797,19 @@
         <v>0.4222222222222222</v>
       </c>
       <c r="E38" t="n">
-        <v>0.375</v>
+        <v>0.36</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="H38" t="n">
         <v>0.766016713091922</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7436823104693141</v>
+        <v>0.7579908675799086</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1833,19 +1833,19 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.34375</v>
       </c>
       <c r="H39" t="n">
         <v>0.9136490250696379</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9186991869918699</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1869,19 +1869,19 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="H40" t="n">
         <v>0.8105849582172702</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1905,19 +1905,19 @@
         <v>0.4555555555555555</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="H41" t="n">
         <v>0.766016713091922</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7031963470319634</v>
+        <v>0.8259109311740891</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
